--- a/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capitan\Desktop\WORKS\MEANING\ted-sws\tests\test_data\notice_transformer\mapping_suite_processor_repository\test_package\transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702B7383-6174-49E1-98CF-49823D1EC20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6326656-4356-4FB2-B28A-8C420F1B63F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,6 @@
     <sheet name="Questions" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -5263,7 +5262,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capitan\Desktop\WORKS\MEANING\ted-sws\tests\test_data\notice_transformer\mapping_suite_processor_repository\test_package\transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6326656-4356-4FB2-B28A-8C420F1B63F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB8351B-DCEE-4EBE-AAF3-1C6B82CDD91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7104" yWindow="2640" windowWidth="13056" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Rules" sheetId="2" r:id="rId2"/>
-    <sheet name="Legend" sheetId="3" r:id="rId3"/>
-    <sheet name="Ex sample data" sheetId="4" r:id="rId4"/>
-    <sheet name="Ex Controlled List of Roles (CL" sheetId="5" r:id="rId5"/>
-    <sheet name="Ex Controlled List for Organisa" sheetId="6" r:id="rId6"/>
-    <sheet name="CL3 (at-vocnuts)" sheetId="7" r:id="rId7"/>
-    <sheet name="CL4 (at-voccountry)" sheetId="8" r:id="rId8"/>
-    <sheet name="CL5 (at-vocbuyer-legal-type)" sheetId="9" r:id="rId9"/>
-    <sheet name="CL6 (at-vocmain-activity)" sheetId="10" r:id="rId10"/>
-    <sheet name="CL7 (at-voccpv)" sheetId="11" r:id="rId11"/>
-    <sheet name="CL8 (at-voccontract-nature)" sheetId="12" r:id="rId12"/>
-    <sheet name="CL9 (at-voccurrency)" sheetId="13" r:id="rId13"/>
-    <sheet name="Questions" sheetId="14" r:id="rId14"/>
+    <sheet name="Resources" sheetId="15" r:id="rId3"/>
+    <sheet name="Legend" sheetId="3" r:id="rId4"/>
+    <sheet name="Ex sample data" sheetId="4" r:id="rId5"/>
+    <sheet name="Ex Controlled List of Roles (CL" sheetId="5" r:id="rId6"/>
+    <sheet name="Ex Controlled List for Organisa" sheetId="6" r:id="rId7"/>
+    <sheet name="CL3 (at-vocnuts)" sheetId="7" r:id="rId8"/>
+    <sheet name="CL4 (at-voccountry)" sheetId="8" r:id="rId9"/>
+    <sheet name="CL5 (at-vocbuyer-legal-type)" sheetId="9" r:id="rId10"/>
+    <sheet name="CL6 (at-vocmain-activity)" sheetId="10" r:id="rId11"/>
+    <sheet name="CL7 (at-voccpv)" sheetId="11" r:id="rId12"/>
+    <sheet name="CL8 (at-voccontract-nature)" sheetId="12" r:id="rId13"/>
+    <sheet name="CL9 (at-voccurrency)" sheetId="13" r:id="rId14"/>
+    <sheet name="Questions" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -360,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="713">
   <si>
     <t>Field</t>
   </si>
@@ -4511,13 +4512,22 @@
   </si>
   <si>
     <t>mapping_id</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>countries.json</t>
+  </si>
+  <si>
+    <t>nuts.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4650,6 +4660,23 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -4725,7 +4752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4814,11 +4841,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5000,6 +5042,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5261,7 +5309,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5363,13 +5411,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5400,13 +5450,15 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5437,13 +5489,15 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5474,13 +5528,15 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5511,6 +5567,45 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="84"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>696</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14450,6 +14545,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C9B214-70A8-4D70-BC1F-CC6F95720A50}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="86" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="86" t="s">
+        <v>712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14553,14 +14682,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14707,7 +14838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14768,14 +14899,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14821,14 +14954,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14858,7 +14993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14893,41 +15028,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>694</v>
-      </c>
-      <c r="B1" s="84"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>695</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>696</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capitan\Desktop\WORKS\MEANING\ted-sws\tests\test_data\notice_transformer\mapping_suite_processor_repository\test_package\transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB8351B-DCEE-4EBE-AAF3-1C6B82CDD91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F79BF-64A7-4EC3-9064-7B042AA55184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7104" yWindow="2640" windowWidth="13056" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7104" yWindow="2640" windowWidth="13056" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -4511,9 +4511,6 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>mapping_id</t>
-  </si>
-  <si>
     <t>File name</t>
   </si>
   <si>
@@ -4521,6 +4518,9 @@
   </si>
   <si>
     <t>nuts.json</t>
+  </si>
+  <si>
+    <t>test_package</t>
   </si>
 </sst>
 </file>
@@ -5030,6 +5030,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5042,12 +5048,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5309,7 +5309,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5402,7 +5402,7 @@
         <v>708</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -5428,10 +5428,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
@@ -5467,10 +5467,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
@@ -5506,10 +5506,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
@@ -5545,10 +5545,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
@@ -5584,10 +5584,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
@@ -5649,22 +5649,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82" t="s">
+      <c r="F1" s="83"/>
+      <c r="G1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -14548,7 +14548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C9B214-70A8-4D70-BC1F-CC6F95720A50}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -14558,18 +14558,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="79" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+    <row r="3" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="80" t="s">
         <v>711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
-        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -14708,20 +14708,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82" t="s">
+      <c r="F1" s="83"/>
+      <c r="G1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="81"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -14854,10 +14854,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
@@ -14917,10 +14917,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
@@ -14972,10 +14972,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
@@ -15009,10 +15009,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">

--- a/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capitan\Desktop\WORKS\MEANING\ted-sws\tests\test_data\notice_transformer\mapping_suite_processor_repository\test_package\transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F79BF-64A7-4EC3-9064-7B042AA55184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9765B7D8-32FA-4E10-BFCA-117684A71983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7104" yWindow="2640" windowWidth="13056" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7452" yWindow="2988" windowWidth="13056" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -387,9 +387,6 @@
     <t>Notice type (eForms)</t>
   </si>
   <si>
-    <t>Form type(eForms)</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -4521,6 +4518,9 @@
   </si>
   <si>
     <t>test_package</t>
+  </si>
+  <si>
+    <t>Form type (eForms)</t>
   </si>
 </sst>
 </file>
@@ -5310,7 +5310,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5360,49 +5360,49 @@
     </row>
     <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>712</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -5429,16 +5429,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>695</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -5468,16 +5468,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>695</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -5507,16 +5507,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>695</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -5546,16 +5546,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>695</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -5585,16 +5585,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>695</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -5650,17 +5650,17 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
       <c r="D1" s="83"/>
       <c r="E1" s="84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="83"/>
       <c r="G1" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="82"/>
       <c r="I1" s="82"/>
@@ -5684,34 +5684,34 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -5732,15 +5732,15 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -5758,17 +5758,17 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -5784,26 +5784,26 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>40</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -5826,26 +5826,26 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -5868,26 +5868,26 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -5902,26 +5902,26 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -5936,26 +5936,26 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="C9" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="D9" s="27" t="s">
         <v>63</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>64</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -5970,26 +5970,26 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -6004,26 +6004,26 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="29" t="s">
         <v>76</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>77</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="H11" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -6046,26 +6046,26 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>84</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -6080,26 +6080,26 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -6114,26 +6114,26 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -6148,26 +6148,26 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -6206,26 +6206,26 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="D17" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>112</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="H17" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>115</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -6248,26 +6248,26 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="H18" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -6282,10 +6282,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -6306,16 +6306,16 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>126</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -6332,26 +6332,26 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="C21" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="D21" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>131</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="H21" s="27" t="s">
         <v>133</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>134</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -6366,10 +6366,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>135</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>136</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
@@ -6398,26 +6398,26 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>139</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>140</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="H23" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -6432,26 +6432,26 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="D24" s="24" t="s">
         <v>146</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -6466,15 +6466,15 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>151</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>152</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -6492,20 +6492,20 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>155</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="24"/>
       <c r="E26" s="10"/>
       <c r="F26" s="24"/>
       <c r="G26" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
@@ -6520,32 +6520,32 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="D27" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="I27" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>164</v>
-      </c>
       <c r="J27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -6558,26 +6558,26 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="C28" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="D28" s="36" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="H28" s="36" t="s">
         <v>170</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>171</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -6600,26 +6600,26 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="D29" s="24" t="s">
         <v>174</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>175</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -6634,26 +6634,26 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="C30" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -6668,26 +6668,26 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="H31" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -6702,26 +6702,26 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="C32" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="D32" s="41" t="s">
         <v>194</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>195</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>197</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -6736,10 +6736,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -6760,16 +6760,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>200</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>201</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -6786,10 +6786,10 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -6812,20 +6812,20 @@
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
       <c r="C36" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="27" t="s">
         <v>205</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>206</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="H36" s="27" t="s">
         <v>208</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>209</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -6840,20 +6840,20 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="C37" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="D37" s="27" t="s">
         <v>212</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>213</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
@@ -6870,20 +6870,20 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="C38" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="D38" s="27" t="s">
         <v>217</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>218</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -6900,22 +6900,22 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="G39" s="42" t="s">
+      <c r="H39" s="42" t="s">
         <v>223</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>224</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
@@ -6930,20 +6930,20 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -6958,26 +6958,26 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="27" t="s">
-        <v>160</v>
-      </c>
       <c r="D41" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="H41" s="27" t="s">
         <v>230</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>231</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -6992,26 +6992,26 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="D42" s="27" t="s">
         <v>234</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>235</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="H42" s="27" t="s">
         <v>237</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>238</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -7026,10 +7026,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>240</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -7050,26 +7050,26 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>175</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="H44" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -7084,26 +7084,26 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>247</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -7118,10 +7118,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -7142,26 +7142,26 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="15" t="s">
+      <c r="D47" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="H47" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>255</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -7176,26 +7176,26 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="C48" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="D48" s="27" t="s">
         <v>258</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>259</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="H48" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -7210,26 +7210,26 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>264</v>
-      </c>
       <c r="C49" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>195</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -7244,24 +7244,24 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="D50" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -7276,26 +7276,26 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="C51" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="D51" s="44" t="s">
         <v>275</v>
-      </c>
-      <c r="D51" s="44" t="s">
-        <v>276</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="G51" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="H51" s="46" t="s">
         <v>278</v>
-      </c>
-      <c r="H51" s="46" t="s">
-        <v>279</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -7310,26 +7310,26 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>281</v>
-      </c>
       <c r="C52" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="45" t="s">
         <v>269</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>270</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="H52" s="46" t="s">
         <v>282</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="H52" s="46" t="s">
-        <v>283</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -7344,26 +7344,26 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>285</v>
-      </c>
       <c r="C53" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="44" t="s">
         <v>275</v>
-      </c>
-      <c r="D53" s="44" t="s">
-        <v>276</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="H53" s="46" t="s">
         <v>286</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="H53" s="46" t="s">
-        <v>287</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -7378,16 +7378,16 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>289</v>
-      </c>
       <c r="C54" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="44" t="s">
         <v>275</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>276</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="43"/>
@@ -7406,23 +7406,23 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="C55" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="C55" s="45" t="s">
-        <v>292</v>
-      </c>
       <c r="D55" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="G55" s="27" t="s">
         <v>293</v>
-      </c>
-      <c r="G55" s="27" t="s">
-        <v>294</v>
       </c>
       <c r="H55" s="32"/>
       <c r="I55" s="10"/>
@@ -7438,23 +7438,23 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="C56" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="D56" s="45" t="s">
         <v>297</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>298</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="G56" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>300</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -7470,10 +7470,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>302</v>
       </c>
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
@@ -7484,95 +7484,95 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="D58" s="47" t="s">
         <v>305</v>
-      </c>
-      <c r="D58" s="47" t="s">
-        <v>306</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>311</v>
-      </c>
       <c r="C59" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D59" s="47" t="s">
         <v>305</v>
-      </c>
-      <c r="D59" s="47" t="s">
-        <v>306</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="G59" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="G59" s="49" t="s">
+      <c r="H59" s="15" t="s">
         <v>313</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="C60" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="D60" s="47" t="s">
         <v>317</v>
-      </c>
-      <c r="D60" s="47" t="s">
-        <v>318</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H60" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="E61" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>323</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E62" s="10"/>
       <c r="G62" s="10"/>
@@ -7580,10 +7580,10 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>326</v>
       </c>
       <c r="E63" s="10"/>
       <c r="G63" s="10"/>
@@ -7591,299 +7591,299 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="C64" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="D64" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="H64" s="46" t="s">
         <v>332</v>
-      </c>
-      <c r="H64" s="46" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="C65" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="D65" s="24" t="s">
         <v>336</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>337</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="G65" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="H65" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="C66" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="D66" s="24" t="s">
         <v>343</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>344</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H66" s="15" t="s">
         <v>345</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>348</v>
-      </c>
       <c r="C67" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H67" s="46" t="s">
         <v>349</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="H67" s="46" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B68" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="D68" s="24" t="s">
         <v>336</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>337</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="G68" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="G68" s="15" t="s">
-        <v>339</v>
-      </c>
       <c r="H68" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="D69" s="24" t="s">
         <v>343</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>344</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>356</v>
-      </c>
       <c r="C70" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D70" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" s="50" t="s">
         <v>357</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="H70" s="50" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B71" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="D71" s="24" t="s">
         <v>336</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>337</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="G71" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="G71" s="15" t="s">
-        <v>339</v>
-      </c>
       <c r="H71" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B72" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="D72" s="24" t="s">
         <v>343</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>344</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>364</v>
-      </c>
       <c r="C73" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D73" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H73" s="46" t="s">
         <v>365</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="H73" s="46" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>368</v>
-      </c>
       <c r="C74" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D74" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H74" s="46" t="s">
         <v>369</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="H74" s="46" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>372</v>
-      </c>
       <c r="C75" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="C76" s="47" t="s">
         <v>376</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>377</v>
       </c>
       <c r="D76" s="48"/>
       <c r="E76" s="10"/>
@@ -7893,61 +7893,61 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="D77" s="24" t="s">
         <v>380</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>381</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G77" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="G77" s="27" t="s">
+      <c r="H77" s="27" t="s">
         <v>383</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="C78" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="D78" s="24" t="s">
         <v>387</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>388</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="G78" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="G78" s="27" t="s">
+      <c r="H78" s="27" t="s">
         <v>390</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B79" s="15" t="s">
-        <v>393</v>
-      </c>
       <c r="C79" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="48"/>
@@ -7956,58 +7956,58 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B80" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="C80" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="D80" s="24" t="s">
         <v>396</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>397</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="G80" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="G80" s="27" t="s">
+      <c r="H80" s="27" t="s">
         <v>399</v>
-      </c>
-      <c r="H80" s="27" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="B81" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="C81" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="D81" s="24" t="s">
         <v>403</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>404</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="G81" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="G81" s="27" t="s">
+      <c r="H81" s="27" t="s">
         <v>406</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>408</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>409</v>
       </c>
       <c r="E82" s="10"/>
       <c r="G82" s="10"/>
@@ -8015,34 +8015,34 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B83" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="C83" s="51" t="s">
         <v>411</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="D83" s="51" t="s">
         <v>412</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>413</v>
       </c>
       <c r="E83" s="32"/>
       <c r="F83" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="G83" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="G83" s="27" t="s">
+      <c r="H83" s="27" t="s">
         <v>415</v>
-      </c>
-      <c r="H83" s="27" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B84" s="15" t="s">
         <v>417</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>418</v>
       </c>
       <c r="E84" s="10"/>
       <c r="G84" s="10"/>
@@ -8050,34 +8050,34 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="C85" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="D85" s="24" t="s">
         <v>421</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>422</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="G85" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="G85" s="27" t="s">
+      <c r="H85" s="27" t="s">
         <v>424</v>
-      </c>
-      <c r="H85" s="27" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="B86" s="15" t="s">
         <v>426</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>427</v>
       </c>
       <c r="C86" s="24"/>
       <c r="E86" s="10"/>
@@ -8086,130 +8086,130 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="C87" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="D87" s="24" t="s">
         <v>430</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>431</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H87" s="15" t="s">
         <v>432</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B88" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="E88" s="15" t="s">
         <v>435</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>436</v>
       </c>
       <c r="F88" s="52"/>
       <c r="G88" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="53"/>
       <c r="B89" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C89" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="C89" s="54" t="s">
+      <c r="D89" s="54" t="s">
         <v>439</v>
-      </c>
-      <c r="D89" s="54" t="s">
-        <v>440</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="55" t="s">
+        <v>440</v>
+      </c>
+      <c r="G89" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="G89" s="15" t="s">
+      <c r="H89" s="15" t="s">
         <v>442</v>
-      </c>
-      <c r="H89" s="15" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="53"/>
       <c r="B90" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C90" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="D90" s="54" t="s">
         <v>445</v>
-      </c>
-      <c r="D90" s="54" t="s">
-        <v>446</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="55" t="s">
+        <v>446</v>
+      </c>
+      <c r="G90" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="G90" s="49" t="s">
+      <c r="H90" s="15" t="s">
         <v>448</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="53"/>
       <c r="B91" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C91" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="D91" s="54" t="s">
         <v>450</v>
-      </c>
-      <c r="D91" s="54" t="s">
-        <v>451</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G91" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="H91" s="15" t="s">
         <v>452</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="53"/>
       <c r="B92" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C92" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="C92" s="54" t="s">
+      <c r="D92" s="54" t="s">
         <v>455</v>
-      </c>
-      <c r="D92" s="54" t="s">
-        <v>456</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="G92" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="H92" s="46" t="s">
         <v>458</v>
-      </c>
-      <c r="H92" s="46" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -8224,13 +8224,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="B94" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="B94" s="15" t="s">
-        <v>461</v>
-      </c>
       <c r="C94" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D94" s="54"/>
       <c r="E94" s="10"/>
@@ -8240,13 +8240,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C95" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D95" s="54"/>
       <c r="E95" s="10"/>
@@ -8256,83 +8256,83 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="B96" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="C96" s="54" t="s">
         <v>464</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="D96" s="54" t="s">
         <v>465</v>
-      </c>
-      <c r="D96" s="54" t="s">
-        <v>466</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="55" t="s">
+        <v>466</v>
+      </c>
+      <c r="G96" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="G96" s="15" t="s">
+      <c r="H96" s="46" t="s">
         <v>468</v>
-      </c>
-      <c r="H96" s="46" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>471</v>
-      </c>
       <c r="C97" s="54" t="s">
+        <v>464</v>
+      </c>
+      <c r="D97" s="54" t="s">
         <v>465</v>
-      </c>
-      <c r="D97" s="54" t="s">
-        <v>466</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="55" t="s">
+        <v>471</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="H97" s="46" t="s">
         <v>472</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="H97" s="46" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="B98" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="C98" s="58" t="s">
         <v>475</v>
-      </c>
-      <c r="C98" s="58" t="s">
-        <v>476</v>
       </c>
       <c r="D98" s="54"/>
       <c r="E98" s="10"/>
       <c r="F98" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="G98" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="G98" s="27" t="s">
+      <c r="H98" s="60" t="s">
         <v>478</v>
-      </c>
-      <c r="H98" s="60" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C99" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D99" s="54"/>
       <c r="E99" s="10"/>
@@ -8342,33 +8342,33 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="B100" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="C100" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="C100" s="54" t="s">
+      <c r="D100" s="54" t="s">
         <v>483</v>
-      </c>
-      <c r="D100" s="54" t="s">
-        <v>484</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="61" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="B101" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="B101" s="15" t="s">
-        <v>487</v>
-      </c>
       <c r="C101" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D101" s="54"/>
       <c r="E101" s="10"/>
@@ -8378,131 +8378,131 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="B102" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="C102" s="54" t="s">
         <v>489</v>
       </c>
-      <c r="C102" s="54" t="s">
+      <c r="D102" s="54" t="s">
         <v>490</v>
-      </c>
-      <c r="D102" s="54" t="s">
-        <v>491</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="55" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="B103" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="C103" s="54" t="s">
         <v>494</v>
       </c>
-      <c r="C103" s="54" t="s">
+      <c r="D103" s="54" t="s">
         <v>495</v>
-      </c>
-      <c r="D103" s="54" t="s">
-        <v>496</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="55" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="B104" s="15" t="s">
-        <v>499</v>
-      </c>
       <c r="C104" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="D104" s="54" t="s">
         <v>495</v>
-      </c>
-      <c r="D104" s="54" t="s">
-        <v>496</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="55" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="B105" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="B105" s="15" t="s">
-        <v>502</v>
-      </c>
       <c r="C105" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="D105" s="54" t="s">
         <v>495</v>
-      </c>
-      <c r="D105" s="54" t="s">
-        <v>496</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="55" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="B106" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="B106" s="15" t="s">
-        <v>505</v>
-      </c>
       <c r="C106" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="D106" s="54" t="s">
         <v>495</v>
-      </c>
-      <c r="D106" s="54" t="s">
-        <v>496</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="55" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="B107" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="C107" s="62" t="s">
         <v>508</v>
-      </c>
-      <c r="C107" s="62" t="s">
-        <v>509</v>
       </c>
       <c r="D107" s="54"/>
       <c r="E107" s="10"/>
       <c r="F107" s="55" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="B108" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="B108" s="15" t="s">
-        <v>512</v>
-      </c>
       <c r="C108" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D108" s="54"/>
       <c r="E108" s="10"/>
@@ -8512,253 +8512,253 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B109" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C109" s="57" t="s">
+      <c r="D109" s="54" t="s">
         <v>36</v>
-      </c>
-      <c r="D109" s="54" t="s">
-        <v>37</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B110" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="D110" s="54" t="s">
         <v>43</v>
-      </c>
-      <c r="D110" s="54" t="s">
-        <v>44</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B111" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C111" s="57" t="s">
+      <c r="D111" s="54" t="s">
         <v>50</v>
-      </c>
-      <c r="D111" s="54" t="s">
-        <v>51</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B112" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C112" s="57" t="s">
+      <c r="D112" s="54" t="s">
         <v>57</v>
-      </c>
-      <c r="D112" s="54" t="s">
-        <v>58</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B113" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="D113" s="54" t="s">
         <v>63</v>
-      </c>
-      <c r="D113" s="54" t="s">
-        <v>64</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D114" s="54" t="s">
         <v>523</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C114" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D114" s="54" t="s">
-        <v>524</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="D115" s="54" t="s">
         <v>76</v>
-      </c>
-      <c r="D115" s="54" t="s">
-        <v>77</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="55" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C116" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" s="54" t="s">
         <v>83</v>
-      </c>
-      <c r="D116" s="54" t="s">
-        <v>84</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B117" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C117" s="57" t="s">
+      <c r="D117" s="54" t="s">
         <v>90</v>
-      </c>
-      <c r="D117" s="54" t="s">
-        <v>91</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="55" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="B118" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="15" t="s">
-        <v>533</v>
-      </c>
       <c r="C118" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118" s="54" t="s">
         <v>96</v>
-      </c>
-      <c r="D118" s="54" t="s">
-        <v>97</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="55" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C119" s="57" t="s">
+      <c r="D119" s="54" t="s">
         <v>103</v>
-      </c>
-      <c r="D119" s="54" t="s">
-        <v>104</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="55" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="B120" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="C120" s="57" t="s">
         <v>538</v>
       </c>
-      <c r="C120" s="57" t="s">
+      <c r="D120" s="54" t="s">
         <v>539</v>
-      </c>
-      <c r="D120" s="54" t="s">
-        <v>540</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="55" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="B121" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="B121" s="15" t="s">
-        <v>543</v>
-      </c>
       <c r="C121" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D121" s="54"/>
       <c r="E121" s="10"/>
@@ -8768,111 +8768,111 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="B122" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="B122" s="15" t="s">
-        <v>545</v>
-      </c>
       <c r="C122" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" s="54" t="s">
         <v>205</v>
-      </c>
-      <c r="D122" s="54" t="s">
-        <v>206</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="55" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="B123" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="C123" s="54" t="s">
         <v>548</v>
       </c>
-      <c r="C123" s="54" t="s">
+      <c r="D123" s="54" t="s">
         <v>549</v>
-      </c>
-      <c r="D123" s="54" t="s">
-        <v>550</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="55" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B124" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="C124" s="54" t="s">
+      <c r="D124" s="54" t="s">
         <v>212</v>
-      </c>
-      <c r="D124" s="54" t="s">
-        <v>213</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="55" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B125" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C125" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="C125" s="54" t="s">
+      <c r="D125" s="54" t="s">
         <v>217</v>
-      </c>
-      <c r="D125" s="54" t="s">
-        <v>218</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="55" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C126" s="62" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D126" s="54"/>
       <c r="E126" s="10"/>
       <c r="F126" s="63" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="B127" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="B127" s="15" t="s">
-        <v>559</v>
-      </c>
       <c r="C127" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D127" s="54"/>
       <c r="E127" s="10"/>
@@ -8882,56 +8882,56 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="B128" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="C128" s="54" t="s">
         <v>561</v>
       </c>
-      <c r="C128" s="54" t="s">
+      <c r="D128" s="54" t="s">
         <v>562</v>
-      </c>
-      <c r="D128" s="54" t="s">
-        <v>563</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="55" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="B129" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="C129" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="C129" s="54" t="s">
+      <c r="D129" s="54" t="s">
         <v>567</v>
-      </c>
-      <c r="D129" s="54" t="s">
-        <v>568</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="55" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B130" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="C130" s="54" t="s">
         <v>571</v>
       </c>
-      <c r="C130" s="54" t="s">
+      <c r="D130" s="54" t="s">
         <v>572</v>
-      </c>
-      <c r="D130" s="54" t="s">
-        <v>573</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="54"/>
@@ -8940,68 +8940,68 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C131" s="62" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D131" s="54"/>
       <c r="E131" s="10"/>
       <c r="F131" s="55" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="B132" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="C132" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="C132" s="54" t="s">
+      <c r="D132" s="54" t="s">
         <v>578</v>
-      </c>
-      <c r="D132" s="54" t="s">
-        <v>579</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="55" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="B133" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="C133" s="54" t="s">
         <v>582</v>
       </c>
-      <c r="C133" s="54" t="s">
+      <c r="D133" s="54" t="s">
         <v>583</v>
-      </c>
-      <c r="D133" s="54" t="s">
-        <v>584</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="55" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="B134" s="15" t="s">
         <v>586</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>587</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
@@ -9010,10 +9010,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
@@ -9022,10 +9022,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="B136" s="15" t="s">
         <v>589</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>590</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
@@ -9034,10 +9034,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="B137" s="15" t="s">
         <v>591</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>592</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
@@ -9046,10 +9046,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E138" s="10"/>
       <c r="G138" s="10"/>
@@ -9057,10 +9057,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E139" s="10"/>
       <c r="G139" s="10"/>
@@ -9068,10 +9068,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E140" s="10"/>
       <c r="G140" s="10"/>
@@ -9079,10 +9079,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E141" s="10"/>
       <c r="G141" s="10"/>
@@ -9090,10 +9090,10 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E142" s="10"/>
       <c r="G142" s="10"/>
@@ -9101,10 +9101,10 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E143" s="10"/>
       <c r="G143" s="10"/>
@@ -9112,10 +9112,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E144" s="10"/>
       <c r="G144" s="10"/>
@@ -9123,10 +9123,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B145" s="15" t="s">
         <v>600</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>601</v>
       </c>
       <c r="E145" s="10"/>
       <c r="G145" s="10"/>
@@ -9134,10 +9134,10 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E146" s="10"/>
       <c r="G146" s="10"/>
@@ -9145,10 +9145,10 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="B147" s="15" t="s">
         <v>603</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>604</v>
       </c>
       <c r="E147" s="10"/>
       <c r="G147" s="10"/>
@@ -9156,10 +9156,10 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E148" s="10"/>
       <c r="G148" s="10"/>
@@ -9167,10 +9167,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E149" s="10"/>
       <c r="G149" s="10"/>
@@ -9178,10 +9178,10 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E150" s="10"/>
       <c r="G150" s="10"/>
@@ -9189,10 +9189,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E151" s="10"/>
       <c r="G151" s="10"/>
@@ -9200,10 +9200,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E152" s="10"/>
       <c r="G152" s="10"/>
@@ -9211,10 +9211,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E153" s="10"/>
       <c r="G153" s="10"/>
@@ -9222,10 +9222,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E154" s="10"/>
       <c r="G154" s="10"/>
@@ -9233,10 +9233,10 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E155" s="10"/>
       <c r="G155" s="10"/>
@@ -9244,10 +9244,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E156" s="10"/>
       <c r="G156" s="10"/>
@@ -9255,10 +9255,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="B157" s="15" t="s">
         <v>614</v>
-      </c>
-      <c r="B157" s="15" t="s">
-        <v>615</v>
       </c>
       <c r="E157" s="10"/>
       <c r="G157" s="10"/>
@@ -9266,10 +9266,10 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="B158" s="15" t="s">
         <v>616</v>
-      </c>
-      <c r="B158" s="15" t="s">
-        <v>617</v>
       </c>
       <c r="E158" s="10"/>
       <c r="G158" s="10"/>
@@ -9277,10 +9277,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E159" s="10"/>
       <c r="G159" s="10"/>
@@ -9288,10 +9288,10 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E160" s="10"/>
       <c r="G160" s="10"/>
@@ -9299,10 +9299,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E161" s="10"/>
       <c r="G161" s="10"/>
@@ -9310,10 +9310,10 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E162" s="10"/>
       <c r="G162" s="10"/>
@@ -9321,10 +9321,10 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E163" s="10"/>
       <c r="G163" s="10"/>
@@ -9332,10 +9332,10 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E164" s="10"/>
       <c r="G164" s="10"/>
@@ -9343,10 +9343,10 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E165" s="10"/>
       <c r="G165" s="10"/>
@@ -9354,10 +9354,10 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E166" s="10"/>
       <c r="G166" s="10"/>
@@ -9365,10 +9365,10 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E167" s="10"/>
       <c r="G167" s="10"/>
@@ -9376,10 +9376,10 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="B168" s="15" t="s">
         <v>627</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>628</v>
       </c>
       <c r="E168" s="10"/>
       <c r="G168" s="10"/>
@@ -9387,10 +9387,10 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="B169" s="15" t="s">
         <v>629</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>630</v>
       </c>
       <c r="E169" s="10"/>
       <c r="G169" s="10"/>
@@ -9398,10 +9398,10 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="B170" s="15" t="s">
         <v>631</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>632</v>
       </c>
       <c r="E170" s="10"/>
       <c r="G170" s="10"/>
@@ -9409,10 +9409,10 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="B171" s="15" t="s">
         <v>633</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>634</v>
       </c>
       <c r="E171" s="10"/>
       <c r="G171" s="10"/>
@@ -9420,10 +9420,10 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E172" s="10"/>
       <c r="G172" s="10"/>
@@ -9431,10 +9431,10 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E173" s="10"/>
       <c r="G173" s="10"/>
@@ -9442,10 +9442,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="B174" s="15" t="s">
         <v>637</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>638</v>
       </c>
       <c r="E174" s="10"/>
       <c r="G174" s="10"/>
@@ -9453,10 +9453,10 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="B175" s="15" t="s">
         <v>639</v>
-      </c>
-      <c r="B175" s="15" t="s">
-        <v>640</v>
       </c>
       <c r="E175" s="10"/>
       <c r="G175" s="10"/>
@@ -9464,10 +9464,10 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="B176" s="15" t="s">
         <v>641</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>642</v>
       </c>
       <c r="E176" s="10"/>
       <c r="G176" s="10"/>
@@ -9475,10 +9475,10 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="B177" s="15" t="s">
         <v>643</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>644</v>
       </c>
       <c r="E177" s="10"/>
       <c r="G177" s="10"/>
@@ -9486,10 +9486,10 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="B178" s="15" t="s">
         <v>645</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>646</v>
       </c>
       <c r="E178" s="10"/>
       <c r="G178" s="10"/>
@@ -9497,10 +9497,10 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="B179" s="15" t="s">
         <v>647</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>648</v>
       </c>
       <c r="E179" s="10"/>
       <c r="G179" s="10"/>
@@ -9508,10 +9508,10 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="B180" s="15" t="s">
         <v>649</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>650</v>
       </c>
       <c r="E180" s="10"/>
       <c r="G180" s="10"/>
@@ -9519,10 +9519,10 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="B181" s="15" t="s">
         <v>651</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>652</v>
       </c>
       <c r="E181" s="10"/>
       <c r="G181" s="10"/>
@@ -9530,10 +9530,10 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="B182" s="15" t="s">
         <v>653</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>654</v>
       </c>
       <c r="E182" s="10"/>
       <c r="G182" s="10"/>
@@ -9541,10 +9541,10 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="B183" s="15" t="s">
         <v>655</v>
-      </c>
-      <c r="B183" s="15" t="s">
-        <v>656</v>
       </c>
       <c r="E183" s="10"/>
       <c r="G183" s="10"/>
@@ -9552,10 +9552,10 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="B184" s="15" t="s">
         <v>657</v>
-      </c>
-      <c r="B184" s="15" t="s">
-        <v>658</v>
       </c>
       <c r="E184" s="10"/>
       <c r="G184" s="10"/>
@@ -9563,10 +9563,10 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="B185" s="30" t="s">
         <v>659</v>
-      </c>
-      <c r="B185" s="30" t="s">
-        <v>660</v>
       </c>
       <c r="E185" s="10"/>
       <c r="G185" s="10"/>
@@ -9574,10 +9574,10 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
+        <v>660</v>
+      </c>
+      <c r="B186" s="30" t="s">
         <v>661</v>
-      </c>
-      <c r="B186" s="30" t="s">
-        <v>662</v>
       </c>
       <c r="E186" s="10"/>
       <c r="G186" s="10"/>
@@ -9585,10 +9585,10 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="B187" s="30" t="s">
         <v>663</v>
-      </c>
-      <c r="B187" s="30" t="s">
-        <v>664</v>
       </c>
       <c r="E187" s="10"/>
       <c r="G187" s="10"/>
@@ -9596,10 +9596,10 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
+        <v>664</v>
+      </c>
+      <c r="B188" s="30" t="s">
         <v>665</v>
-      </c>
-      <c r="B188" s="30" t="s">
-        <v>666</v>
       </c>
       <c r="E188" s="10"/>
       <c r="G188" s="10"/>
@@ -9607,10 +9607,10 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
+        <v>666</v>
+      </c>
+      <c r="B189" s="30" t="s">
         <v>667</v>
-      </c>
-      <c r="B189" s="30" t="s">
-        <v>668</v>
       </c>
       <c r="E189" s="10"/>
       <c r="G189" s="10"/>
@@ -9618,10 +9618,10 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="B190" s="30" t="s">
         <v>669</v>
-      </c>
-      <c r="B190" s="30" t="s">
-        <v>670</v>
       </c>
       <c r="E190" s="10"/>
       <c r="G190" s="10"/>
@@ -14559,17 +14559,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -14595,62 +14595,62 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>671</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>673</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
+        <v>676</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>677</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="68" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="70" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="71" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="72" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -14659,7 +14659,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B16" s="73"/>
     </row>
@@ -14671,10 +14671,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
+        <v>684</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>685</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -14709,17 +14709,17 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
       <c r="D1" s="83"/>
       <c r="E1" s="84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="83"/>
       <c r="G1" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="83"/>
       <c r="I1" s="15"/>
@@ -14745,34 +14745,34 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -14795,34 +14795,34 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="75" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" s="75" t="s">
+        <v>686</v>
+      </c>
+      <c r="E5" s="76" t="s">
         <v>687</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="F5" s="76" t="s">
         <v>688</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="G5" s="76" t="s">
         <v>689</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="H5" s="76" t="s">
         <v>690</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="I5" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="J5" s="75" t="s">
         <v>692</v>
-      </c>
-      <c r="J5" s="75" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -14855,40 +14855,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>695</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>697</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>699</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>701</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -14918,32 +14918,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>695</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>703</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>705</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -14973,16 +14973,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>695</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -15010,16 +15010,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>695</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
@@ -5,24 +5,25 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Rules" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Resources" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Legend" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Ex sample data" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Ex Controlled List of Roles (CL" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Ex Controlled List for Organisa" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="CL3 (at-vocnuts)" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="CL4 (at-voccountry)" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="CL5 (at-vocbuyer-legal-type)" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="CL6 (at-vocmain-activity)" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="CL7 (at-voccpv)" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="CL8 (at-voccontract-nature)" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="CL9 (at-voccurrency)" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Questions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="RML_Modules" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Legend" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Ex sample data" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Ex Controlled List of Roles (CL" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Ex Controlled List for Organisa" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="CL3 (at-vocnuts)" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="CL4 (at-voccountry)" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="CL5 (at-vocbuyer-legal-type)" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="CL6 (at-vocmain-activity)" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="CL7 (at-voccpv)" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="CL8 (at-voccontract-nature)" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="CL9 (at-voccurrency)" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Questions" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -383,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="725">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -4218,6 +4219,45 @@
   </si>
   <si>
     <t xml:space="preserve">nuts.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical_mapping_F03.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first file listed should always be the main file (i.e. the "entry point" specific to a form)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contracting_authority.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procedure.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">award_of_contract.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complementary_information.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 6</t>
   </si>
   <si>
     <t xml:space="preserve">Property path</t>
@@ -4386,7 +4426,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4472,6 +4512,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -4613,7 +4668,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4814,6 +4869,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4866,7 +4929,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4986,11 +5049,11 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="26.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5157,24 +5220,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
-        <v>700</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>701</v>
+      <c r="A2" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -5202,24 +5265,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
-        <v>700</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>701</v>
+      <c r="A2" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -5247,24 +5310,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
-        <v>700</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>701</v>
+      <c r="A2" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -5292,24 +5355,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
-        <v>700</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>701</v>
+      <c r="A2" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -5337,24 +5400,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
-        <v>700</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>701</v>
+      <c r="A2" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -5376,13 +5439,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="65"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>714</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -5411,7 +5519,7 @@
       <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
@@ -14336,7 +14444,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.22"/>
   </cols>
@@ -14372,100 +14480,183 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="50" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="51" t="s">
+        <v>677</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="51" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="51" t="s">
+        <v>683</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="51" t="s">
+        <v>687</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>688</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>676</v>
+      <c r="A2" s="52" t="s">
+        <v>689</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
-        <v>678</v>
+      <c r="A3" s="53" t="s">
+        <v>691</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
-        <v>680</v>
+      <c r="A4" s="54" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
-        <v>681</v>
+      <c r="A8" s="55" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53" t="s">
-        <v>682</v>
+      <c r="A9" s="55" t="s">
+        <v>695</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="54" t="s">
-        <v>684</v>
+      <c r="B10" s="56" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
-      <c r="B11" s="55" t="s">
-        <v>685</v>
+      <c r="B11" s="57" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="56" t="s">
-        <v>686</v>
+      <c r="B12" s="58" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="57" t="s">
-        <v>687</v>
+      <c r="B13" s="59" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="58" t="s">
-        <v>688</v>
+      <c r="B14" s="60" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="53"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53" t="s">
-        <v>689</v>
+      <c r="A16" s="55" t="s">
+        <v>702</v>
       </c>
       <c r="B16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="59"/>
+      <c r="B17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53" t="s">
-        <v>690</v>
+      <c r="A20" s="55" t="s">
+        <v>703</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -14479,7 +14670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14490,7 +14681,7 @@
       <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
@@ -14591,35 +14782,35 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>692</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>694</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>695</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>696</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>697</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>698</v>
+      <c r="D5" s="62" t="s">
+        <v>705</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>706</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>707</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>708</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>709</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>710</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14641,7 +14832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14652,109 +14843,48 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
-        <v>700</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>701</v>
+      <c r="A2" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="63"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
-        <v>700</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -14776,30 +14906,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
-        <v>700</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>701</v>
+      <c r="A2" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -14827,24 +14973,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
-        <v>700</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>701</v>
+      <c r="A2" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="729">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -483,10 +483,10 @@
     <t xml:space="preserve">Standard Form Field Name (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">eForm BT-ID (O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eForm BT Name (O)</t>
+    <t xml:space="preserve">eForm BT-ID (Provisional/Indicative) (O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT Name (Provisional/Indicative) (O)</t>
   </si>
   <si>
     <t xml:space="preserve">Base XPath (for anchoring) (M)</t>
@@ -4313,6 +4313,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gray font color: Temporary. Revision required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT-ID (O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT Name (O)</t>
   </si>
   <si>
     <t xml:space="preserve">    Organisation City</t>
@@ -5079,11 +5085,11 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5260,7 +5266,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5268,16 +5274,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5305,7 +5311,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5313,16 +5319,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5350,7 +5356,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5358,16 +5364,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5395,7 +5401,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5403,16 +5409,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5440,7 +5446,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5448,16 +5454,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5485,7 +5491,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -5493,16 +5499,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5530,7 +5536,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -5553,13 +5559,13 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
@@ -5605,7 +5611,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -14484,7 +14490,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.22"/>
   </cols>
@@ -14526,7 +14532,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
   </cols>
@@ -14609,7 +14615,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
@@ -14721,7 +14727,7 @@
       <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
@@ -14779,10 +14785,10 @@
         <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>707</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>33</v>
+        <v>708</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>34</v>
@@ -14832,25 +14838,25 @@
         <v>69</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G5" s="67" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H5" s="68" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="I5" s="66" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14883,7 +14889,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
@@ -14891,40 +14897,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -14952,7 +14958,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -14960,32 +14966,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -15013,7 +15019,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -15021,16 +15027,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/notice_transformer/mapping_suite_processor_repository/test_package/transformation/conceptual_mappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -4656,10 +4656,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -5229,7 +5230,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5410,7 +5411,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5587,7 +5588,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5656,7 +5657,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5717,7 +5718,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5762,7 +5763,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5807,7 +5808,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5852,7 +5853,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5897,7 +5898,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5942,7 +5943,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5987,7 +5988,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6032,7 +6033,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6061,7 +6062,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G9" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15249,18 +15250,18 @@
   </sheetPr>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="35.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="7" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16470,7 +16471,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16512,7 +16513,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16595,7 +16596,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16746,8 +16747,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16833,7 +16834,7 @@
   <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16945,7 +16946,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
